--- a/assets/docs/Maps (Respuestas).xlsx
+++ b/assets/docs/Maps (Respuestas).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -580,6 +580,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -814,7 +820,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -833,7 +839,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -844,6 +849,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1178,12 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1238,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43185.982692002319</v>
       </c>
@@ -1285,7 +1292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43185.999631018523</v>
       </c>
@@ -1332,7 +1339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43185.999660023153</v>
       </c>
@@ -1426,7 +1433,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43186.005263541665</v>
       </c>
@@ -1567,7 +1574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43186.023236134264</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43186.029677025464</v>
       </c>
@@ -1755,7 +1762,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43186.281704374996</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43186.327892407411</v>
       </c>
@@ -1896,7 +1903,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43186.55752170139</v>
       </c>
@@ -1943,7 +1950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43189.940010231483</v>
       </c>
@@ -2037,7 +2044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43189.942265949074</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43189.960550787036</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43189.993025254633</v>
       </c>
@@ -2272,7 +2279,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43190.027973391203</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43190.035782488427</v>
       </c>
@@ -2366,7 +2373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43190.36135846065</v>
       </c>
@@ -2414,18 +2421,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O26">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc)"/>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc), Recorridos turísticos (visitas gastronómicas, culturales e historicas)"/>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc), Recorridos turísticos (visitas gastronómicas, culturales e historicas), Ir de compras, salir de fiesta, salir con citas, tomar fotos, ir a bares"/>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc), Recorridos turísticos (visitas gastronómicas, culturales e historicas), Visitar festividades"/>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc), Recorridos turísticos (visitas gastronómicas, culturales e historicas), Visitar festividades, Visitas familiares y amigos"/>
-        <filter val="Deportes de aventura (Ciclismo, senderismo,motociclismo, kayac, etc), Recorridos turísticos (visitas gastronómicas, culturales e historicas), Visitas familiares y amigos"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O26"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2434,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2474,11 +2470,11 @@
       <c r="H3" s="9">
         <v>0.48</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="30">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -2495,11 +2491,11 @@
       <c r="H4" s="5">
         <v>0.32</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="22" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="29">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -2516,11 +2512,11 @@
       <c r="H5" s="5">
         <v>0.12</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="22" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="19">
+      <c r="L5" s="29">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
@@ -2537,11 +2533,11 @@
       <c r="H6" s="5">
         <v>0.08</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="L6" s="19">
+      <c r="L6" s="18">
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
@@ -2559,43 +2555,43 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="29">
         <v>0.17857142857142858</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="L8" s="26">
+      <c r="L8" s="28">
         <v>0.11904761904761904</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="25">
         <v>1.1904761904761904E-2</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="28">
         <v>0.17857142857142858</v>
       </c>
     </row>
@@ -2612,10 +2608,10 @@
       <c r="H12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K12" s="22" t="s">
+      <c r="K12" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="28">
         <v>0.10714285714285714</v>
       </c>
     </row>
@@ -2632,10 +2628,10 @@
       <c r="H13" s="9">
         <v>0.32</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="25">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
@@ -2652,10 +2648,10 @@
       <c r="H14" s="5">
         <v>0.36</v>
       </c>
-      <c r="K14" s="25" t="s">
+      <c r="K14" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="26">
         <v>5.9523809523809521E-2</v>
       </c>
     </row>
@@ -2676,7 +2672,7 @@
       <c r="K15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="27">
         <f>SUM(L3:L14)</f>
         <v>1</v>
       </c>
@@ -2808,52 +2804,52 @@
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <v>0.61764705882352944</v>
       </c>
-      <c r="G31" s="21" t="s">
+      <c r="G31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <v>0.41025641025641024</v>
       </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D32" s="23">
         <v>0.17647058823529413</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <v>0.35897435897435898</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="23">
         <v>8.8235294117647065E-2</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <v>0.23076923076923078</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="23">
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="G34" s="7" t="s">
@@ -2865,10 +2861,10 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="23">
         <v>5.8823529411764705E-2</v>
       </c>
     </row>
@@ -2876,7 +2872,7 @@
       <c r="C36" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="23">
         <f>SUM(D31:D35)</f>
         <v>1</v>
       </c>

--- a/assets/docs/Maps (Respuestas).xlsx
+++ b/assets/docs/Maps (Respuestas).xlsx
@@ -1186,11 +1186,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1575,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43186.023236134264</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43186.281704374996</v>
       </c>
@@ -2421,7 +2422,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O26"/>
+  <autoFilter ref="A1:O26">
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Ninguna"/>
+        <filter val="No conozco ninguna"/>
+        <filter val="No conozco ninguna, Ruta 0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2431,7 +2440,7 @@
   <dimension ref="C1:L36"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
